--- a/testdata/Test Data.xlsx
+++ b/testdata/Test Data.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tintin/eclipse-workspace/MyFramework/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\Framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC683AAA-644B-684B-A69B-92BE9A45820E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73C977B-FCA6-4859-827C-8E23E932EB18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>First_Name</t>
   </si>
@@ -100,10 +99,10 @@
     <t>Y</t>
   </si>
   <si>
+    <t>28/12/1991</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>28/12/1991</t>
   </si>
 </sst>
 </file>
@@ -177,11 +176,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -468,61 +466,61 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -536,10 +534,10 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -555,9 +553,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -571,10 +569,10 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -590,9 +588,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -606,10 +604,10 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -625,9 +623,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -641,10 +639,10 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -670,195 +668,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AA9CE6-35B2-4C83-8E7F-FDB0D3F7051F}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3">
-        <v>33600</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>33600</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>33600</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I4" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>33600</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I5" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{11050AE6-C11C-45E0-AEFD-C32B81125BB9}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{928E43B6-250E-430E-9552-304C3B5A3844}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{85004BA1-64B3-4151-8DD3-532135071482}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{C46633DB-52A0-44EF-B547-BEFFA0BF3558}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testdata/Test Data.xlsx
+++ b/testdata/Test Data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\Framework\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\Automation_Practise\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73C977B-FCA6-4859-827C-8E23E932EB18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFA04A-61B5-4E42-AB81-C57AD4C2B0F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Account_Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Vegetables" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,73 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
-  <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Last_Name</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Address_Line1</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Post_Code</t>
-  </si>
-  <si>
-    <t>Nitin</t>
-  </si>
-  <si>
-    <t>Gupta</t>
-  </si>
-  <si>
-    <t>Super@123</t>
-  </si>
-  <si>
-    <t>House No 120</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>My Home Address</t>
-  </si>
-  <si>
-    <t>Abhishek</t>
-  </si>
-  <si>
-    <t>Sahil</t>
-  </si>
-  <si>
-    <t>Puneet</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>katyal</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Flag</t>
   </si>
@@ -99,17 +33,26 @@
     <t>Y</t>
   </si>
   <si>
-    <t>28/12/1991</t>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Brocolli$2,Cucumber$5,Potato$10,Banana$10,Almonds$2</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Brocolli$4,Cucumber$2,Potato$8,Banana$5,Almonds$3</t>
+  </si>
+  <si>
+    <t>Brocolli$12,Cucumber$15,Potato$11,Banana$11,Almonds$12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,14 +64,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,19 +107,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,209 +394,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="J2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1">
-        <v>12345</v>
-      </c>
-      <c r="J3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1">
-        <v>12345</v>
-      </c>
-      <c r="J4" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
-        <v>12345</v>
-      </c>
-      <c r="J5" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{41340F79-1EA2-4FD5-85B6-8239CE20BD58}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{FC4824D5-C4E0-4CC5-9AFC-A19C513A2F59}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{670AED59-30D1-4254-82CF-6DBFC0BC02F2}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{331AFC54-D6EE-41CD-A011-D605142D741D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>